--- a/data/ACM-5%-with-networks-LS-SW.xlsx
+++ b/data/ACM-5%-with-networks-LS-SW.xlsx
@@ -1290,7 +1290,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="179">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1522,6 +1522,7 @@
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -1806,8 +1807,8 @@
   <dimension ref="A1:AW231"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K22" sqref="K22"/>
+      <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K219" sqref="K219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5264,7 +5265,7 @@
         <v>0.23293657062526429</v>
       </c>
       <c r="W45" s="107">
-        <f t="shared" si="3"/>
+        <f>(V45-U45)/(2*1.959964)</f>
         <v>0.13864690055814463</v>
       </c>
       <c r="X45" s="97"/>
@@ -12137,7 +12138,7 @@
       <c r="Z146" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="AA146" s="33" t="s">
+      <c r="AA146" s="38" t="s">
         <v>49</v>
       </c>
       <c r="AB146" s="33"/>
@@ -12232,10 +12233,10 @@
       </c>
       <c r="X147" s="73"/>
       <c r="Y147" s="73"/>
-      <c r="Z147" s="73" t="s">
+      <c r="Z147" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="AA147" s="73" t="s">
+      <c r="AA147" s="179" t="s">
         <v>49</v>
       </c>
       <c r="AB147" s="73"/>
@@ -15562,10 +15563,10 @@
         <v>14</v>
       </c>
       <c r="N195" s="90" t="s">
+        <v>214</v>
+      </c>
+      <c r="O195" s="90" t="s">
         <v>215</v>
-      </c>
-      <c r="O195" s="90" t="s">
-        <v>214</v>
       </c>
       <c r="P195" s="93" t="s">
         <v>38</v>
@@ -17385,29 +17386,29 @@
         <v>38</v>
       </c>
       <c r="Q220" s="70">
-        <v>0.93475030000000003</v>
+        <v>0.93577940000000004</v>
       </c>
       <c r="R220" s="30">
-        <v>0.91702790000000001</v>
+        <v>0.91849190000000003</v>
       </c>
       <c r="S220" s="30">
-        <v>0.95281510000000003</v>
+        <v>0.95339209999999996</v>
       </c>
       <c r="T220" s="105">
         <f t="shared" si="10"/>
-        <v>-6.7475844183537234E-2</v>
+        <v>-6.6375514043010855E-2</v>
       </c>
       <c r="U220" s="104">
         <f t="shared" si="11"/>
-        <v>-8.6617381888621295E-2</v>
+        <v>-8.5022193092025869E-2</v>
       </c>
       <c r="V220" s="104">
         <f t="shared" si="12"/>
-        <v>-4.8334413039757149E-2</v>
+        <v>-4.7729022379578781E-2</v>
       </c>
       <c r="W220" s="104">
         <f t="shared" si="13"/>
-        <v>9.7662428618240302E-3</v>
+        <v>9.5137386993962864E-3</v>
       </c>
       <c r="X220" s="30" t="s">
         <v>41</v>
